--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2382637.106918896</v>
+        <v>2486816.741369967</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>342.4409187161196</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>26.30878201733173</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.0462988210297</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>119.8620943363778</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>80.99855610779343</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>90.91531859487063</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1110,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>136.7733216968461</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>253.829378629531</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U10" t="n">
-        <v>227.9892974585892</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>71.76895293959856</v>
+        <v>138.7199604467</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>75.12653431054498</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>15.09910835322229</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>125.2193560244676</v>
+        <v>72.31842549662575</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>169.9685329265976</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>107.3363007608866</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>137.7610225486949</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>99.86023999965182</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>10.74993283584276</v>
+        <v>45.16086499484972</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417108</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>91.32784210538742</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>217.0479268348178</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>105.3219429113318</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3244,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>220.1787488016091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>7.602497644398836</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>90.48716302792783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>33.48499328953009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>165.8053198049109</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>238.8100968820245</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>177.1006680594871</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.76669086687</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.76669086687</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1548.76669086687</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1162.978438268625</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>751.9925334790178</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,22 +4330,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906803</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.366530930991</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4431,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4519,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1302.938768680375</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.254280474488</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>758.8371104375277</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>530.8475595395104</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2659.195734198231</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2285.729975937151</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>788.0919254117579</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C7" t="n">
-        <v>619.155742483851</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D7" t="n">
-        <v>619.155742483851</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419976</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>969.7403902419976</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>969.7403902419976</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.299101484277</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1257.336584543865</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>899.0708859371146</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>513.2826333388703</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.03827352421</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548398</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U10" t="n">
-        <v>1385.405255760407</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V10" t="n">
-        <v>1385.405255760407</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W10" t="n">
-        <v>1385.405255760407</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X10" t="n">
-        <v>1157.415704862389</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>936.6231257188592</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>781.250370848291</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433587</v>
+        <v>631.1337314359553</v>
       </c>
       <c r="E13" t="n">
-        <v>415.5933575433587</v>
+        <v>483.2206378535622</v>
       </c>
       <c r="F13" t="n">
-        <v>415.5933575433587</v>
+        <v>483.2206378535622</v>
       </c>
       <c r="G13" t="n">
-        <v>248.3972582582387</v>
+        <v>316.0245385684421</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.8230468926974</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2304.031991640193</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2084.430526663135</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1795.355300007332</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.670811801445</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1251.253641764485</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.264090866467</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y16" t="n">
-        <v>802.4715117229372</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>2490.32382148308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.702309109632</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.955258982919</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C19" t="n">
-        <v>889.0190760550122</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="D19" t="n">
-        <v>738.9024366426764</v>
+        <v>685.46715328122</v>
       </c>
       <c r="E19" t="n">
-        <v>590.9893430602833</v>
+        <v>537.5540596988269</v>
       </c>
       <c r="F19" t="n">
-        <v>444.0993955623729</v>
+        <v>390.6641122009165</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854706</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956689</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.603723813159</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.377158693024</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.301932037222</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.617443831335</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.200273794374</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K24" t="n">
-        <v>175.8744207939072</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.5558870561822</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2240.764831803678</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2021.163366826619</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.088140170817</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.40365196493</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.986481927969</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9969310299521</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.2043518864219</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3087.702309109632</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.425677595856</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1885.210734949511</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1630.526246743624</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.109076706663</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.119525808646</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532801</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253733</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>282.2891673205955</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6892,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.298589081537</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3090381835199</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835199</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.83890577277</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>3087.702309109632</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>3715.300272664238</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2372.238089282765</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2152.636624305706</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.5772922261132</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C40" t="n">
-        <v>815.6411092982063</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D40" t="n">
-        <v>665.5244698858705</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="41">
@@ -7400,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>782.841029837709</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1192.479045565966</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>964.4894946679487</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.4894946679487</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7660,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7673,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153951</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741615</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.932614305899</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650097</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>4151.857387650097</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953645</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68.52575990662532</v>
+        <v>1.574752399523902</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>105.8997516910996</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>271.4238899833687</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>40.30478226780124</v>
+        <v>93.20571279564309</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>47.43691740069062</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>144.8013425629414</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>43.26526345294974</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>186.3242343895923</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.9597225531944</v>
+        <v>180.5487903941874</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>69.47507150177319</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>66.34424953498186</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.4237883572458</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>47.71290145456655</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>109.4223302771039</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797946.9260679776</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.370099883548738e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26420,10 @@
         <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815711</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.0109881571</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26442,10 +26444,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26454,10 +26456,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891335.3256323237</v>
+        <v>-891335.3256323236</v>
       </c>
       <c r="C6" t="n">
-        <v>437409.4200952697</v>
+        <v>437409.420095269</v>
       </c>
       <c r="D6" t="n">
-        <v>437409.4200952692</v>
+        <v>437409.4200952691</v>
       </c>
       <c r="E6" t="n">
-        <v>187226.6469116871</v>
+        <v>187226.6469116868</v>
       </c>
       <c r="F6" t="n">
+        <v>512639.1087190421</v>
+      </c>
+      <c r="G6" t="n">
         <v>512639.1087190419</v>
-      </c>
-      <c r="G6" t="n">
-        <v>512639.108719042</v>
       </c>
       <c r="H6" t="n">
         <v>512639.108719042</v>
       </c>
       <c r="I6" t="n">
-        <v>512639.1087190419</v>
+        <v>512639.1087190421</v>
       </c>
       <c r="J6" t="n">
-        <v>295107.9063217646</v>
+        <v>295107.9063217645</v>
       </c>
       <c r="K6" t="n">
-        <v>512639.1087190417</v>
+        <v>512639.1087190418</v>
       </c>
       <c r="L6" t="n">
-        <v>512639.1087190419</v>
+        <v>512639.108719042</v>
       </c>
       <c r="M6" t="n">
         <v>427584.08078353</v>
       </c>
       <c r="N6" t="n">
-        <v>512639.1087190417</v>
+        <v>512639.1087190419</v>
       </c>
       <c r="O6" t="n">
-        <v>512639.1087190419</v>
+        <v>512639.108719042</v>
       </c>
       <c r="P6" t="n">
-        <v>512639.108719042</v>
+        <v>512639.1087190415</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>68.48080693733385</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>301.4434764528032</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>24.78568136090763</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>166.3497438692351</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>268.2424126096196</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>55.51864405169854</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491429</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>270.1027240448653</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>95.41159008788202</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U10" t="n">
-        <v>58.22254074702371</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29521,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.930160149446845e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,28 +32317,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963275</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32551,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K24" t="n">
-        <v>220.7280629601522</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>169.2687847673327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6535388222619</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,19 +33739,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>169.2687847673327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N39" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,19 +34213,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164533</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,13 +36199,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K24" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>27.13475084531435</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>432.0572943778175</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>27.13475084531435</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N39" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2486816.741369967</v>
+        <v>2482804.131355974</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6.632494016572129</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>26.30878201733173</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.0462988210297</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,13 +873,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>19.58945082857547</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>345.0942361518147</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814351</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>74.7576914549238</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1113,13 +1113,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>189.8197238931125</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>365.0393359012896</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>253.829378629531</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586317</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="H13" t="n">
-        <v>138.7199604467</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>15.09910835322229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>72.31842549662575</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>107.3363007608866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>99.86023999965182</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951687</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>217.0479268348178</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>128.5251451036103</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>105.3219429113318</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
-        <v>7.602497644398836</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>165.8053198049109</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2839.523069976995</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2839.523069976995</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>2466.057311715915</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251691</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.0144869816389</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0249360836216</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.857513699662</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1959.241091287692</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.27857434728</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.01287574053</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>846.2246231422855</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>435.2387183526779</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W8" t="n">
-        <v>2752.944093773487</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>2345.840931351814</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>165.6296951047725</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1494.054724415577</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.1865537761979</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>781.250370848291</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>631.1337314359553</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>483.2206378535622</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F13" t="n">
-        <v>483.2206378535622</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0245385684421</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5260,52 +5260,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1418.449741049605</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1190.460190151587</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.6676110080573</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>835.5837926935558</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>685.46715328122</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>537.5540596988269</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>390.6641122009165</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3260.450525729772</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3890.88112060156</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3890.88112060156</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3662.891569703542</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3442.098990560012</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1943.637854965528</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.953366759641</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3342.537229081859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6481,19 +6481,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D34" t="n">
-        <v>449.4852666057155</v>
+        <v>762.547769317909</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4852666057155</v>
+        <v>614.6346757355159</v>
       </c>
       <c r="F34" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>282.2891673205955</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2372.238089282765</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2152.636624305706</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1863.561397649904</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1608.876909444017</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1319.459739407057</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>702.4944101284095</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1877.026663243044</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.342175037157</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1332.925005000197</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.935454102179</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>884.1428749586493</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H13" t="n">
-        <v>1.574752399523902</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>93.20571279564309</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>144.8013425629414</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>186.3242343895923</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>273.1465727897273</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>69.47507150177319</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>16.89590291932092</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
-        <v>173.4237883572458</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597545</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26444,7 +26444,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26453,7 +26453,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891335.3256323236</v>
+        <v>-891335.3256323232</v>
       </c>
       <c r="C6" t="n">
-        <v>437409.420095269</v>
+        <v>437409.4200952696</v>
       </c>
       <c r="D6" t="n">
-        <v>437409.4200952691</v>
+        <v>437409.4200952689</v>
       </c>
       <c r="E6" t="n">
-        <v>187226.6469116868</v>
+        <v>186879.2676573298</v>
       </c>
       <c r="F6" t="n">
-        <v>512639.1087190421</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="G6" t="n">
-        <v>512639.1087190419</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="H6" t="n">
-        <v>512639.108719042</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="I6" t="n">
-        <v>512639.1087190421</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="J6" t="n">
-        <v>295107.9063217645</v>
+        <v>294760.5270674077</v>
       </c>
       <c r="K6" t="n">
-        <v>512639.1087190418</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="L6" t="n">
-        <v>512639.108719042</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="M6" t="n">
-        <v>427584.08078353</v>
+        <v>427236.701529173</v>
       </c>
       <c r="N6" t="n">
-        <v>512639.1087190419</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="O6" t="n">
-        <v>512639.108719042</v>
+        <v>512291.7294646848</v>
       </c>
       <c r="P6" t="n">
-        <v>512639.1087190415</v>
+        <v>512291.7294646846</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>348.0505476041108</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>301.4434764528032</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.78568136090763</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>232.5481924952525</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>61.78180958989674</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803255</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.59472895491429</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>62.31791943071551</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>45.88238975216387</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>95.41159008788202</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>47.29464513706807</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>69.34270184147189</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.930160149446845e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663286</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2482804.131355974</v>
+        <v>2484564.661658759</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.632494016572129</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>374.3724651321482</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>19.58945082857547</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>19.58945082857502</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>345.0942361518147</v>
+        <v>303.517306378887</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>215.5490084194489</v>
       </c>
       <c r="V7" t="n">
-        <v>189.8197238931125</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>365.0393359012896</v>
+        <v>37.28707743115363</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>99.80535061811115</v>
       </c>
       <c r="F10" t="n">
-        <v>98.12640288586317</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>19.91555826189101</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>142.304610006627</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576179</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>28.98177228777837</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428209</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>13.03790159951687</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>128.5251451036103</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.638712032431</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.638712032431</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008243</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032431</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="3">
@@ -4403,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
         <v>1735.608663915319</v>
@@ -4524,10 +4524,10 @@
         <v>1513.842048484845</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X4" t="n">
         <v>1494.054724415577</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495404</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495404</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E5" t="n">
-        <v>1127.748203495404</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1296.115777354088</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.857513699662</v>
+        <v>1041.431289148201</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4403436627018</v>
+        <v>752.0141191112407</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4403436627018</v>
+        <v>752.0141191112407</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.241091287692</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.27857434728</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.01287574053</v>
+        <v>900.9499883969581</v>
       </c>
       <c r="E8" t="n">
-        <v>846.2246231422855</v>
+        <v>515.1617357987138</v>
       </c>
       <c r="F8" t="n">
-        <v>435.2387183526779</v>
+        <v>104.1758310091063</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883008</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351814</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.840931351814</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C10" t="n">
-        <v>463.6594280995014</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="D10" t="n">
-        <v>313.5427886871656</v>
+        <v>313.5427886871652</v>
       </c>
       <c r="E10" t="n">
-        <v>165.6296951047725</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,16 +4983,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
         <v>1638.191681214136</v>
@@ -5001,13 +5001,13 @@
         <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,22 +5059,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474266</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2303.221053270537</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2083.619588293478</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.544361637675</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>801.6605733532801</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6788,10 +6788,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.547769317909</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.547769317909</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>762.547769317909</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>614.6346757355159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>38.72167599501762</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>119.633700730434</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194177</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>273.1465727897273</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>16.89590291932092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>811494.7169878981</v>
+        <v>811494.7169878982</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>811494.7169878981</v>
+        <v>811494.7169878982</v>
       </c>
     </row>
     <row r="4">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26453,7 +26453,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891335.3256323232</v>
+        <v>-891335.325632323</v>
       </c>
       <c r="C6" t="n">
-        <v>437409.4200952696</v>
+        <v>437409.4200952693</v>
       </c>
       <c r="D6" t="n">
-        <v>437409.4200952689</v>
+        <v>437409.420095269</v>
       </c>
       <c r="E6" t="n">
-        <v>186879.2676573298</v>
+        <v>187191.9089862505</v>
       </c>
       <c r="F6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.3707936064</v>
       </c>
       <c r="G6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.370793606</v>
       </c>
       <c r="H6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.3707936059</v>
       </c>
       <c r="I6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="J6" t="n">
-        <v>294760.5270674077</v>
+        <v>295073.1683963288</v>
       </c>
       <c r="K6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="L6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.370793606</v>
       </c>
       <c r="M6" t="n">
-        <v>427236.701529173</v>
+        <v>427549.3428580939</v>
       </c>
       <c r="N6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="O6" t="n">
-        <v>512291.7294646848</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="P6" t="n">
-        <v>512291.7294646846</v>
+        <v>512604.3707936059</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0505476041108</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>11.86547352390534</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>232.5481924952525</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>206.1202045604621</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>61.78180958989674</v>
+        <v>103.3587393628244</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>70.662829786164</v>
       </c>
       <c r="V7" t="n">
-        <v>62.31791943071551</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>45.88238975216387</v>
+        <v>373.6346482222998</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>46.62861202845802</v>
       </c>
       <c r="F10" t="n">
-        <v>47.29464513706807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663286</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
